--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2989.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2989.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.191525810299759</v>
+        <v>1.989395499229431</v>
       </c>
       <c r="B1">
-        <v>2.506284699026072</v>
+        <v>2.270251750946045</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.268316507339478</v>
       </c>
       <c r="D1">
-        <v>2.256713038638212</v>
+        <v>2.734574794769287</v>
       </c>
       <c r="E1">
-        <v>1.188385065505059</v>
+        <v>3.507378101348877</v>
       </c>
     </row>
   </sheetData>
